--- a/De que hablar.xlsx
+++ b/De que hablar.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="que poner" sheetId="1" r:id="rId1"/>
+    <sheet name="memorias" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>IED</t>
   </si>
@@ -109,6 +110,96 @@
   </si>
   <si>
     <t>Hablar de principales Acreedores y a qué sectores se dirigen sus desembolsos</t>
+  </si>
+  <si>
+    <t>Crecimiento</t>
+  </si>
+  <si>
+    <t>Crecimiento en relación a Sudamerica</t>
+  </si>
+  <si>
+    <t>la mas alta</t>
+  </si>
+  <si>
+    <t>Contexto externo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Sectores de mayor crecimiento</t>
+  </si>
+  <si>
+    <t>Financieros, Construcción, Manufacturas</t>
+  </si>
+  <si>
+    <t>Impulsos de lado de la oferta</t>
+  </si>
+  <si>
+    <t>Sectores no extractivos</t>
+  </si>
+  <si>
+    <t>Demanda Interna, impulsos fiscales y monetarios</t>
+  </si>
+  <si>
+    <t>del lado del gasto</t>
+  </si>
+  <si>
+    <t>impulso Fiscal y Monetario</t>
+  </si>
+  <si>
+    <t>Por el lado de la demanda</t>
+  </si>
+  <si>
+    <t>Demanda interna</t>
+  </si>
+  <si>
+    <t>Consumo privado e Infraestructura</t>
+  </si>
+  <si>
+    <t>lado Fiscal</t>
+  </si>
+  <si>
+    <t>Mayor Inversión Pública</t>
+  </si>
+  <si>
+    <t>Tal vez poner PII para decir quiénes nos financian</t>
+  </si>
+  <si>
+    <t>Todos los sectores</t>
+  </si>
+  <si>
+    <t>Demanda Interna</t>
+  </si>
+  <si>
+    <t>Financieros destaca</t>
+  </si>
+  <si>
+    <t>Algo especial</t>
+  </si>
+  <si>
+    <t>Modelo de desarrollo basdo en la intervención estatal</t>
+  </si>
+  <si>
+    <t>Recuperación de la economía mundial</t>
+  </si>
+  <si>
+    <t>Actividades Extractivas</t>
+  </si>
+  <si>
+    <t>Detalles</t>
+  </si>
+  <si>
+    <t>La niña afectó al sector agropecuario</t>
+  </si>
+  <si>
+    <t>San Cristobal no impulso tanto</t>
+  </si>
+  <si>
+    <t>Hidrocarburos por ventas a Brasil</t>
+  </si>
+  <si>
+    <t>destaca sectores no extractivos, y minería</t>
   </si>
 </sst>
 </file>
@@ -167,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -190,6 +281,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +605,9 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="8" t="s">
@@ -625,4 +722,233 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2005</v>
+      </c>
+      <c r="C3">
+        <v>2006</v>
+      </c>
+      <c r="D3">
+        <v>2007</v>
+      </c>
+      <c r="E3">
+        <v>2008</v>
+      </c>
+      <c r="F3">
+        <v>2009</v>
+      </c>
+      <c r="G3">
+        <v>2010</v>
+      </c>
+      <c r="H3">
+        <v>2011</v>
+      </c>
+      <c r="I3">
+        <v>2012</v>
+      </c>
+      <c r="J3">
+        <v>2013</v>
+      </c>
+      <c r="K3">
+        <v>2014</v>
+      </c>
+      <c r="L3">
+        <v>2015</v>
+      </c>
+      <c r="M3">
+        <v>2016</v>
+      </c>
+      <c r="N3">
+        <v>2017</v>
+      </c>
+      <c r="O3">
+        <v>2018</v>
+      </c>
+      <c r="P3">
+        <v>2019</v>
+      </c>
+      <c r="Q3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="L4" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M4" s="9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/De que hablar.xlsx
+++ b/De que hablar.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>IED</t>
   </si>
@@ -200,6 +200,42 @@
   </si>
   <si>
     <t>destaca sectores no extractivos, y minería</t>
+  </si>
+  <si>
+    <t>Inversión Pública</t>
+  </si>
+  <si>
+    <t>superávits cuentas externas y fiscales, precios record de minerales</t>
+  </si>
+  <si>
+    <t>El niño</t>
+  </si>
+  <si>
+    <t>Favorable contexto externo</t>
+  </si>
+  <si>
+    <t>Buen año agrícola</t>
+  </si>
+  <si>
+    <t>no extractivos</t>
+  </si>
+  <si>
+    <t>Buen año agricola</t>
+  </si>
+  <si>
+    <t>restricciones movilidad</t>
+  </si>
+  <si>
+    <t>Disminución Inversión Pública</t>
+  </si>
+  <si>
+    <t>Tiene que ser como sintesis de las cuentas oe</t>
+  </si>
+  <si>
+    <t>CEPAL</t>
+  </si>
+  <si>
+    <t>La IED en otros sectores ha disminuido a lo largo de los últimos años, debido a la nacionalización de filiales extranjeras, especialmente en los sectores de la minería y la electricidad.</t>
   </si>
 </sst>
 </file>
@@ -258,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -285,6 +321,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,7 +611,7 @@
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +644,9 @@
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="10" t="s">
@@ -726,18 +770,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q15"/>
+  <dimension ref="A3:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -794,6 +843,18 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
+      <c r="B4" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>6.1499999999999999E-2</v>
+      </c>
       <c r="F4" s="9">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -815,137 +876,347 @@
       <c r="M4" s="9">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O4" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P4" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M8" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="L10" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="B11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I11" t="s">
+      <c r="E11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J11" t="s">
+      <c r="F11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K11" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="L12" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="G13" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>56</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/De que hablar.xlsx
+++ b/De que hablar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="que poner" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>IED</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Mayor Inversión Pública</t>
   </si>
   <si>
-    <t>Tal vez poner PII para decir quiénes nos financian</t>
-  </si>
-  <si>
     <t>Todos los sectores</t>
   </si>
   <si>
@@ -229,13 +226,13 @@
     <t>Disminución Inversión Pública</t>
   </si>
   <si>
-    <t>Tiene que ser como sintesis de las cuentas oe</t>
-  </si>
-  <si>
     <t>CEPAL</t>
   </si>
   <si>
     <t>La IED en otros sectores ha disminuido a lo largo de los últimos años, debido a la nacionalización de filiales extranjeras, especialmente en los sectores de la minería y la electricidad.</t>
+  </si>
+  <si>
+    <t>Tiene que ser como sintesis de las cuentas oe. Tal vez poner PII para decir quiénes nos financian</t>
   </si>
 </sst>
 </file>
@@ -610,18 +607,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="38.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="42.85546875" customWidth="1"/>
   </cols>
@@ -645,13 +642,11 @@
     <row r="3" spans="1:8" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="8" t="s">
@@ -772,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
@@ -891,24 +886,24 @@
     </row>
     <row r="5" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -916,12 +911,12 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,20 +974,20 @@
         <v>33</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -1003,13 +998,13 @@
         <v>34</v>
       </c>
       <c r="N8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="P8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="11"/>
     </row>
@@ -1025,13 +1020,13 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>36</v>
@@ -1078,27 +1073,27 @@
         <v>40</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>44</v>
@@ -1123,10 +1118,10 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -1142,12 +1137,12 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1155,7 +1150,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1175,7 +1170,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -1195,7 +1190,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1211,12 +1206,12 @@
     <row r="16" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
